--- a/results/pvalue_SIDER_all_target_AUPR.xlsx
+++ b/results/pvalue_SIDER_all_target_AUPR.xlsx
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>13.325</t>
+          <t>24.164</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>13.612</t>
+          <t>23.079</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>12.62</t>
+          <t>21.98</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>8.619</t>
+          <t>22.72</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -663,27 +663,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>26.625</t>
+          <t>26.65</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>29.236</t>
+          <t>29.287</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>24.522</t>
+          <t>24.528</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>18.883</t>
+          <t>18.92</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>13.943</t>
+          <t>15.46</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
